--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1617663.499186573</v>
+        <v>1667521.848796925</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6473645.874733098</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3142196.5954957</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7570995.490280277</v>
+        <v>7904044.550932061</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.58289685093662</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -668,16 +670,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>181.5448872019592</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>50.63388649156</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>181.2965229194938</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -880,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>69.90798579419391</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>35.46559899931598</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>54.40738460419744</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>25.45099468012255</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1120,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>63.65461744728708</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>377.1216231871071</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>224.508595795419</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1375,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>319.4399238292447</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1528,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>146.9568991155872</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>155.5045432680849</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>227.5041307701016</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>218.1247287958589</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>101.1061513151977</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.9383353088699</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2135,13 +2137,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.24177712230683</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2327,10 +2329,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>378.9769832968749</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>100.8811374142721</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.4052413122292</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>81.1549583480613</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.37144488016007</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2858,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.0911530820972</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>154.0313569259916</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>170.7879507721958</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>58.11593919665176</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.89026429995027</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>364.054132580644</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>48.20649381210165</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>223.6938263603644</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>245.2379843596716</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.6846011246309</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.6804894878781</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3746,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>127.6077042502676</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>364.6399937545928</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.38429467561163</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>8.522152635936354</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3983,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>90.57942652129574</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.6942298771795</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>6.290917238643778</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.371709779047</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>882.247119092317</v>
+        <v>326.9067396299002</v>
       </c>
       <c r="D2" t="n">
-        <v>881.8235932257816</v>
+        <v>326.4832137633648</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>316.1834023206656</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.912714533713</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1312.152413668882</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.152413668882</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1312.152413668882</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.8908561961008</v>
+        <v>592.1650041644873</v>
       </c>
       <c r="C4" t="n">
-        <v>365.8908561961008</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="D4" t="n">
-        <v>206.3962115190108</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1201.64441320158</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>918.8462657477046</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>644.9605206872264</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W4" t="n">
-        <v>365.8908561961008</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X4" t="n">
-        <v>365.8908561961008</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.8908561961008</v>
+        <v>779.8647105585317</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1696.412113819451</v>
+        <v>636.5689113792441</v>
       </c>
       <c r="C5" t="n">
-        <v>1690.327927173125</v>
+        <v>226.4443206925142</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>226.0207948259788</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>215.7209833832796</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>198.7309753773712</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2052.430444107056</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2052.430444107056</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1702.592889443536</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.592889443536</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X5" t="n">
-        <v>1702.592889443536</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.592889443536</v>
+        <v>1046.790091043734</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4652,22 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008379</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.229291877067</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="C7" t="n">
-        <v>541.229291877067</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="D7" t="n">
-        <v>541.229291877067</v>
+        <v>395.6343672702064</v>
       </c>
       <c r="E7" t="n">
-        <v>380.3184767453865</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1246.342524902554</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>967.2728604114279</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>728.9289982711114</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.9289982711114</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2523.935511436134</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>2113.810920749404</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>1709.346990842465</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>1295.006775359362</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>873.9763633130493</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>465.2480792058815</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>154.3395818335995</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>322.1732906184269</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>860.3327917274664</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1572.924191539704</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2349.242782531458</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2755.760101116527</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3399.390957533632</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3399.390957533632</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>3399.390957533632</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>3399.390957533632</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>3399.390957533632</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3399.390957533632</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3399.390957533632</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3335.093364152534</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="X8" t="n">
-        <v>3335.093364152534</v>
+        <v>2935.857269874341</v>
       </c>
       <c r="Y8" t="n">
-        <v>2934.156691100624</v>
+        <v>2554.926337362112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>746.818661037207</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>612.8235897861528</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>495.9264320055452</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>375.4336159978732</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>266.4737361803777</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>159.4836234947164</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>88.73641053043247</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>260.8006767133058</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>260.8006767133058</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>569.1706624657045</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1410.519924455278</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1410.519924455278</v>
+        <v>837.2844189208142</v>
       </c>
       <c r="O9" t="n">
-        <v>2114.477015001173</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="P9" t="n">
-        <v>2114.477015001173</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2114.477015001173</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2114.477015001173</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2006.487005115482</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1847.14514130249</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1649.794330440709</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1436.082803433742</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1222.849635170071</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1046.523653308964</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>887.1216936727936</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.98781915067264</v>
+        <v>421.742223795061</v>
       </c>
       <c r="C10" t="n">
-        <v>67.98781915067264</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="D10" t="n">
-        <v>67.98781915067264</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="E10" t="n">
-        <v>67.98781915067264</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="F10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>67.98781915067264</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>82.07036855588316</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>236.6226962781211</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>496.5197965581817</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>785.783852998675</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1066.622635392925</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1326.1832457194</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1531.858685969012</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1597.386715771523</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1597.386715771523</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1597.386715771523</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1357.837976748225</v>
+        <v>1116.975776254216</v>
       </c>
       <c r="U10" t="n">
-        <v>1075.039829294349</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="V10" t="n">
-        <v>801.1540842338711</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="W10" t="n">
-        <v>522.0844197427455</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="X10" t="n">
-        <v>283.7405576024289</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.98781915067264</v>
+        <v>609.4419301891054</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.180909427674</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>891.0563187409438</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>891.0563187409438</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>476.7161032578405</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>476.7161032578405</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>67.98781915067264</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>67.98781915067264</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>780.5792189629107</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1556.897809954665</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2310.078826593282</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2953.709683010387</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3037.673305048775</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3358.834311844067</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3264.109882327733</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3041.903398274592</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2784.842906534102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2435.005351870583</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2112.338762144073</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2112.338762144073</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>1711.402089092163</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>67.98781915067264</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>67.98781915067264</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>909.3370811402466</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>1750.686343129821</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O12" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1157.321669451809</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="C13" t="n">
-        <v>986.2282970135257</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>826.7336523364356</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>665.8228372047552</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>501.1917113153464</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>333.9413202408898</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>184.3338650463465</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1597.386715771523</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1597.386715771523</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1597.386715771523</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1597.386715771523</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V13" t="n">
-        <v>1597.386715771523</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W13" t="n">
-        <v>1597.386715771523</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X13" t="n">
-        <v>1569.757074457089</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.021375845854</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1453.991851457834</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1043.867260771104</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>639.4033308641647</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>225.0631153810614</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0631153810614</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G14" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>322.1732906184269</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>860.3327917274664</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.924191539704</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2349.242782531458</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3102.423799170077</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3399.390957533632</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3399.390957533632</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3049.553402870113</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2665.793102005281</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2265.149704174234</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1864.213031122324</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>260.8006767133058</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>716.6069329786046</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>1377.695104897893</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>1377.695104897893</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.771122512643</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>1552.771122512643</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2114.477015001173</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1157.321669451809</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="C16" t="n">
-        <v>986.2282970135257</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D16" t="n">
-        <v>826.7336523364356</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E16" t="n">
-        <v>665.8228372047552</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>501.1917113153464</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>333.9413202408898</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>184.3338650463465</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>82.07036855588316</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>236.6226962781211</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>496.5197965581817</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>785.783852998675</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1066.622635392925</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1326.1832457194</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1531.858685969012</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1597.386715771523</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1597.386715771523</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1597.386715771523</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>1597.386715771523</v>
+        <v>966.8999348750533</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.386715771523</v>
+        <v>693.0141898145753</v>
       </c>
       <c r="W16" t="n">
-        <v>1597.386715771523</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="X16" t="n">
-        <v>1569.757074457089</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.021375845854</v>
+        <v>413.9445253234496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5546,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2950.128063027995</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5597,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1435.242450415966</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1195.693711392668</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1195.693711392668</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V19" t="n">
-        <v>1195.693711392668</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W19" t="n">
-        <v>916.6240469015422</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X19" t="n">
-        <v>916.6240469015422</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.6240469015422</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E20" t="n">
         <v>1320.262653899312</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5841,16 +5843,16 @@
         <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>754.331869609911</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O21" t="n">
-        <v>1458.288960155805</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2019.994852644335</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.1375248150675</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>760.044152376784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>600.549507699694</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>439.6386925680135</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W22" t="n">
-        <v>1343.572929820347</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X22" t="n">
-        <v>1343.572929820347</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.837231209112</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
         <v>490.5039577458317</v>
@@ -6072,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>837.543623783007</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C25" t="n">
-        <v>837.543623783007</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6434849807119</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E25" t="n">
-        <v>574.7326698490315</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6181,16 +6183,16 @@
         <v>1111.429368843485</v>
       </c>
       <c r="V25" t="n">
-        <v>837.543623783007</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W25" t="n">
-        <v>837.543623783007</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X25" t="n">
-        <v>837.543623783007</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y25" t="n">
-        <v>837.543623783007</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6303,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>1458.288960155805</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2019.994852644335</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1158.35815667694</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.093855288175</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>1383.093855288175</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y28" t="n">
-        <v>1158.35815667694</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4572.920798793604</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4350.714314740463</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4093.653822999973</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3743.816268336454</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W29" t="n">
-        <v>3360.055967471622</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X29" t="n">
-        <v>2959.412569640574</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4337.363427183242</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>4337.363427183242</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="V31" t="n">
-        <v>4337.363427183242</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W31" t="n">
-        <v>4337.363427183242</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X31" t="n">
-        <v>4337.363427183242</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y31" t="n">
-        <v>4337.363427183242</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>524.2254458227151</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>524.2254458227151</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4164.476761201259</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C34" t="n">
-        <v>3993.383388762976</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3833.888744085886</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3672.977928954205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3508.346803064796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3341.09641199034</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3191.488956795796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4576.912166206539</v>
+        <v>1324.826325745621</v>
       </c>
       <c r="U34" t="n">
-        <v>4576.912166206539</v>
+        <v>1042.028178291745</v>
       </c>
       <c r="V34" t="n">
-        <v>4576.912166206539</v>
+        <v>768.1424332312672</v>
       </c>
       <c r="W34" t="n">
-        <v>4576.912166206539</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="X34" t="n">
-        <v>4576.912166206539</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y34" t="n">
-        <v>4352.176467595304</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2237.518802661711</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C35" t="n">
-        <v>1827.394211974981</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>898.981111021629</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="C37" t="n">
-        <v>727.8877385833455</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="D37" t="n">
-        <v>568.3930939062554</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="E37" t="n">
-        <v>407.4822787745749</v>
+        <v>258.2831716793286</v>
       </c>
       <c r="F37" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X37" t="n">
-        <v>1311.416516026909</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y37" t="n">
-        <v>1086.680817415673</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
         <v>179.5954603735497</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7211,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>409.9955152208753</v>
+        <v>3790.308655650302</v>
       </c>
       <c r="C40" t="n">
-        <v>409.9955152208753</v>
+        <v>3619.215283212019</v>
       </c>
       <c r="D40" t="n">
-        <v>250.5008705437853</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="E40" t="n">
-        <v>250.5008705437853</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>3295.08951264552</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V40" t="n">
-        <v>1339.844446857597</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W40" t="n">
-        <v>1060.774782366472</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="X40" t="n">
-        <v>822.430920226155</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.6952216149197</v>
+        <v>3790.308655650302</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2126.675251380926</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C41" t="n">
-        <v>1716.550660694196</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>1312.086730787256</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>897.7465153041529</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>476.7161032578405</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>606.1473202597122</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1318.73872007195</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2095.057311063704</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2755.760101116527</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3399.390957533632</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3399.390957533632</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3049.553402870113</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2665.793102005281</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2536.896431045415</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2536.896431045415</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>746.818661037207</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>612.8235897861528</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>495.9264320055452</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>375.4336159978732</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>266.4737361803777</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>159.4836234947164</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>88.73641053043247</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>67.98781915067264</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>67.98781915067264</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M42" t="n">
-        <v>909.3370811402466</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N42" t="n">
-        <v>1750.686343129821</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.477015001173</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P42" t="n">
-        <v>2114.477015001173</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2114.477015001173</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2006.487005115482</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1847.14514130249</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1649.794330440709</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1436.082803433742</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1222.849635170071</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1046.523653308964</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>887.1216936727936</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2295.440206680089</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="C43" t="n">
-        <v>2295.440206680089</v>
+        <v>3883.776074698686</v>
       </c>
       <c r="D43" t="n">
-        <v>2135.945562002999</v>
+        <v>3724.281430021596</v>
       </c>
       <c r="E43" t="n">
-        <v>2135.945562002999</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="F43" t="n">
-        <v>2135.945562002999</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G43" t="n">
-        <v>2135.945562002999</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>1986.338106808456</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>1869.992060912782</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>1884.074610317993</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>2038.626938040231</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>2298.524038320291</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>2587.788094760785</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>2868.626877155035</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>3128.187487481509</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>3333.862927731121</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>3314.118239209032</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>3127.726471088942</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>2888.177732065644</v>
+        <v>4337.363427183242</v>
       </c>
       <c r="U43" t="n">
-        <v>2888.177732065644</v>
+        <v>4328.755192197447</v>
       </c>
       <c r="V43" t="n">
-        <v>2614.291987005166</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="W43" t="n">
-        <v>2335.222322514041</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="X43" t="n">
-        <v>2335.222322514041</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="Y43" t="n">
-        <v>2335.222322514041</v>
+        <v>4054.869447136969</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1803.829406121353</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1393.704815434623</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>989.240885527684</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>897.7465153041529</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>476.7161032578405</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>67.98781915067264</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>67.98781915067264</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>67.98781915067264</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>67.98781915067264</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>67.98781915067264</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>780.5792189629107</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1556.897809954665</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2310.078826593282</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2953.709683010387</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3399.390957533632</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3399.390957533632</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3399.390957533632</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3399.390957533632</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3399.390957533632</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3399.390957533632</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3015.6306566688</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2614.987258837753</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2214.050585785843</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>746.818661037207</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C45" t="n">
-        <v>612.8235897861528</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D45" t="n">
-        <v>495.9264320055452</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E45" t="n">
-        <v>375.4336159978732</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F45" t="n">
-        <v>266.4737361803777</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G45" t="n">
-        <v>159.4836234947164</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H45" t="n">
-        <v>88.73641053043247</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I45" t="n">
-        <v>67.98781915067264</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J45" t="n">
-        <v>67.98781915067264</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K45" t="n">
-        <v>67.98781915067264</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L45" t="n">
-        <v>67.98781915067264</v>
+        <v>3469.596718162561</v>
       </c>
       <c r="M45" t="n">
-        <v>909.3370811402466</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="N45" t="n">
-        <v>1750.686343129821</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.477015001173</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="P45" t="n">
-        <v>2114.477015001173</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q45" t="n">
-        <v>2114.477015001173</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R45" t="n">
-        <v>2114.477015001173</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S45" t="n">
-        <v>2006.487005115482</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T45" t="n">
-        <v>1847.14514130249</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U45" t="n">
-        <v>1649.794330440709</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V45" t="n">
-        <v>1436.082803433742</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W45" t="n">
-        <v>1222.849635170071</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X45" t="n">
-        <v>1046.523653308964</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y45" t="n">
-        <v>887.1216936727936</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1157.321669451809</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="C46" t="n">
-        <v>986.2282970135257</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="D46" t="n">
-        <v>826.7336523364356</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="E46" t="n">
-        <v>665.8228372047552</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>501.1917113153464</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>333.9413202408898</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>184.3338650463465</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>67.98781915067264</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>82.07036855588316</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>236.6226962781211</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>496.5197965581817</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>785.783852998675</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1066.622635392925</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1326.1832457194</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1531.858685969012</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1597.386715771523</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1597.386715771523</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1597.386715771523</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1597.386715771523</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>1314.588568317647</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.588568317647</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.588568317647</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.588568317647</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.588568317647</v>
+        <v>3405.093950857723</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>269.754811036119</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8067,16 +8069,16 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>63.89502594283636</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363632</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8234,7 +8236,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8298,13 +8300,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>236.9512395019903</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8316,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
-        <v>503.5358448829512</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>367.599357904181</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>907.4120231218254</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848179</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8705,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>178.461102713599</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8769,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>907.4120231218254</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>903.0411327771579</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>425.2168041225779</v>
+        <v>752.1609013342966</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,19 +8938,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
-        <v>393.1566022556371</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>356.0091697870508</v>
       </c>
       <c r="N15" t="n">
-        <v>230.0378556308711</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9027,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9255,7 +9257,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>191.4271838211926</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>191.2399885596099</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>398.595458917175</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>492.8993828617429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>346.553124795057</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10908,16 +10910,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11069,19 +11071,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>760.2888463655313</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>907.4120231218254</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>903.0411327771579</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>425.2168041225779</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>596.5640636445446</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>543.8324688599191</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>907.4120231218254</v>
+        <v>197.7527798381155</v>
       </c>
       <c r="N45" t="n">
-        <v>903.0411327771579</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>425.2168041225779</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>60.48277402693844</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.42553959831346</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23476,13 +23478,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1364579980113</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>52.46603520923551</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>36.36515802722613</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>83.42169912369113</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>4.022088210043563</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23972,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>133.7430375082078</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.84312462897441</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>57.018560816047</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>129.1276841407384</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24421,16 +24423,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24601,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>23.97719740167145</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>76.74473988225778</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.55681957368007</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.73155624800674</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>125.9388090533455</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24968,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>57.06664624006535</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>211.2629873331146</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>42.06483528720059</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.778320818413</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>12.26659715854908</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>7.300213505883789</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>4.897397675833872</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>269.0292596024694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>32.28731256679805</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.4384146544923</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>271.4480133434007</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>319.6173868069765</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.12847945292444</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>153.0107897417199</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737113.2980165937</v>
+        <v>742440.8621527787</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554626.4736790324</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>554626.4736790323</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666926.3726212091</v>
+        <v>666926.3726212095</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666926.3726212091</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666926.3726212091</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666926.3726212092</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666926.3726212092</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666926.3726212095</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>554626.4736790324</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554626.4736790323</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26322,13 @@
         <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="G2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="H2" t="n">
         <v>391025.7011723768</v>
@@ -26335,25 +26337,25 @@
         <v>391025.7011723768</v>
       </c>
       <c r="J2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="K2" t="n">
+        <v>391025.7011723766</v>
+      </c>
+      <c r="L2" t="n">
         <v>391025.7011723768</v>
       </c>
-      <c r="L2" t="n">
-        <v>391025.7011723767</v>
-      </c>
       <c r="M2" t="n">
+        <v>391025.7011723768</v>
+      </c>
+      <c r="N2" t="n">
         <v>391025.7011723766</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>391025.7011723768</v>
       </c>
-      <c r="O2" t="n">
-        <v>325197.7110221883</v>
-      </c>
       <c r="P2" t="n">
-        <v>325197.7110221884</v>
+        <v>391025.7011723768</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>101819.596420627</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86528.21837027799</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82959.22311976596</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>134198.5520688799</v>
+        <v>99895.51658519973</v>
       </c>
       <c r="E4" t="n">
-        <v>37307.88131829916</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>37307.88131829916</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090264</v>
@@ -26445,19 +26447,19 @@
         <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="N4" t="n">
+        <v>44919.86535090265</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="P4" t="n">
         <v>44919.86535090264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37307.88131829916</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37307.88131829916</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>85298.34255451121</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>51670.74255451121</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15368.92747212809</v>
+        <v>15368.92747212813</v>
       </c>
       <c r="C6" t="n">
         <v>190324.4373652421</v>
       </c>
       <c r="D6" t="n">
-        <v>118465.9701436156</v>
+        <v>69058.4043371653</v>
       </c>
       <c r="E6" t="n">
-        <v>236219.087149378</v>
+        <v>248271.6713956665</v>
       </c>
       <c r="F6" t="n">
-        <v>236219.0871493781</v>
+        <v>275240.6255766008</v>
       </c>
       <c r="G6" t="n">
-        <v>188712.4072063228</v>
+        <v>275240.6255766009</v>
       </c>
       <c r="H6" t="n">
         <v>275240.6255766008</v>
@@ -26543,25 +26545,25 @@
         <v>275240.6255766008</v>
       </c>
       <c r="J6" t="n">
-        <v>138645.8247707058</v>
+        <v>138645.8247707057</v>
       </c>
       <c r="K6" t="n">
+        <v>275240.6255766007</v>
+      </c>
+      <c r="L6" t="n">
+        <v>135241.314711848</v>
+      </c>
+      <c r="M6" t="n">
+        <v>252731.3608025534</v>
+      </c>
+      <c r="N6" t="n">
+        <v>275240.6255766007</v>
+      </c>
+      <c r="O6" t="n">
+        <v>275240.6255766009</v>
+      </c>
+      <c r="P6" t="n">
         <v>275240.6255766008</v>
-      </c>
-      <c r="L6" t="n">
-        <v>192281.4024568348</v>
-      </c>
-      <c r="M6" t="n">
-        <v>275240.6255766007</v>
-      </c>
-      <c r="N6" t="n">
-        <v>275240.6255766008</v>
-      </c>
-      <c r="O6" t="n">
-        <v>236219.0871493779</v>
-      </c>
-      <c r="P6" t="n">
-        <v>236219.087149378</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>849.847739383408</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>849.847739383408</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>327.7841690133825</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>315.6984817493769</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>327.7841690133824</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>327.7841690133825</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.6984817493769</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>386.536071016908</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>64.5486989451571</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>55.85672871357107</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>334.7330154719022</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>184.5188202132938</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.5774300263172</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>89.73159075659456</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>316.268080408896</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>19.8056831342837</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28020,7 +28022,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>12.64465583764593</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.893130557884291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34787,16 +34789,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>179.3869557635729</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
-        <v>410.6235541263319</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>311.484834093332</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.08941569106788</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35425,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>84.81173943271486</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>849.847739383408</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>367.4653251225778</v>
+        <v>694.4094223342966</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,19 +35658,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
-        <v>299.966826629854</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>298.4448860486334</v>
       </c>
       <c r="N15" t="n">
-        <v>176.8444622371211</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>133.6757048211926</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>133.6757048211925</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>341.0311751787576</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37789,19 +37791,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>667.376555608912</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>367.4653251225778</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>542.3044286417409</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>450.183105579035</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>849.847739383408</v>
+        <v>140.1884960996981</v>
       </c>
       <c r="N45" t="n">
-        <v>849.847739383408</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>367.4653251225778</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1667521.848796925</v>
+        <v>1666209.203341345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029738</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5448872019592</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>45.54097769192227</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -910,10 +910,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>69.90798579419391</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>73.83709241155107</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1071,10 +1071,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012255</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>190.3381595318039</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0.5482317290047285</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1216231871071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>28.01490760909595</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>364.349651285939</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>39.64108301376388</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9568991155872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>372.3536886992978</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>227.5041307701016</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>154.4333513187939</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9383353088699</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>99.44989698355108</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2329,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>380.3593268106412</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2377,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2478,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.45020302297358</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>27.77250173713467</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.1549583480613</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>141.2620969886503</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>154.0313569259916</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>65.31383608752344</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>25.89026429995027</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3319,7 +3319,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>174.1372571702758</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>48.20649381210165</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3483,16 +3483,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3562,10 +3562,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W38" t="n">
-        <v>245.2379843596716</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0.1210561135353828</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>160.6804894878781</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>157.4229911737226</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3802,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>364.6399937545928</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3909,10 +3909,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>21.79352378786465</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>8.522152635936354</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.1247287958589</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>6.290917238643778</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4185,13 +4185,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>114.091153082097</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1285.591565793852</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>875.4669751071217</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>875.0434492405863</v>
       </c>
       <c r="E2" t="n">
-        <v>316.1834023206656</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2042.253293912504</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1692.415739248985</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1692.415739248985</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1650041644873</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>421.0716317262038</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>421.0716317262038</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1608165945233</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>260.1608165945233</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4524,16 +4524,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.8647105585317</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5689113792441</v>
+        <v>881.5511617534477</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4443206925142</v>
+        <v>875.4669751071218</v>
       </c>
       <c r="D5" t="n">
-        <v>226.0207948259788</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E5" t="n">
-        <v>215.7209833832796</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
-        <v>198.7309753773712</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,22 +4567,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
         <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
         <v>1767.09327468481</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>887.7319373775331</v>
       </c>
       <c r="Y5" t="n">
-        <v>1046.790091043734</v>
+        <v>887.7319373775331</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>966.4678100413298</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>795.3744376030463</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E7" t="n">
-        <v>234.7235521385259</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F7" t="n">
-        <v>234.7235521385259</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>67.47316106406927</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>67.47316106406927</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>1378.90321504661</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>1154.167516435374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.705157697622</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.580567010892</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
@@ -4813,19 +4813,19 @@
         <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4843,13 +4843,13 @@
         <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3336.500667705388</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2935.857269874341</v>
+        <v>2952.18659741732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2554.926337362112</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>837.2844189208142</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.241509466709</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
         <v>2102.947401955239</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>421.742223795061</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="C10" t="n">
-        <v>250.6488513567775</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="D10" t="n">
-        <v>250.6488513567775</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="E10" t="n">
-        <v>250.6488513567775</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4992,22 +4992,22 @@
         <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1116.975776254216</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>834.1776288003407</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>834.1776288003407</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>834.1776288003407</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="X10" t="n">
-        <v>834.1776288003407</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.4419301891054</v>
+        <v>519.2216176320426</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2462.839627293158</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C11" t="n">
-        <v>2052.715036606428</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.251106699488</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E11" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5083,10 +5083,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>3273.997480009557</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2873.060806957647</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.708046067539</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445253234496</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5466,22 +5466,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>966.8999348750533</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V16" t="n">
-        <v>693.0141898145753</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W16" t="n">
-        <v>413.9445253234496</v>
+        <v>723.5736495166313</v>
       </c>
       <c r="X16" t="n">
-        <v>413.9445253234496</v>
+        <v>485.2297873763147</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9445253234496</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2245508613034</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X19" t="n">
-        <v>280.9434040846672</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5843,16 +5843,16 @@
         <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D23" t="n">
-        <v>1697.773797548872</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.433582065768</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6025,16 +6025,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>886.6708173828915</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460.6501016978888</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>289.5567292596053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1594.589562253761</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1355.040823230463</v>
       </c>
       <c r="U25" t="n">
-        <v>1111.429368843485</v>
+        <v>1072.242675776587</v>
       </c>
       <c r="V25" t="n">
-        <v>1111.429368843485</v>
+        <v>798.3569307161094</v>
       </c>
       <c r="W25" t="n">
-        <v>1111.429368843485</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X25" t="n">
-        <v>873.0855067031684</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.3498080919331</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6317,16 +6317,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.8258582872483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>324.8258582872483</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>549.5615568984836</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>324.8258582872483</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.844444016082</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3450.08414315125</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>886.6708173828915</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>669.1365767125192</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>669.1365767125192</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6654,19 +6654,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>955.8421396253117</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>955.8421396253117</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W31" t="n">
-        <v>676.772475134186</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X31" t="n">
-        <v>676.772475134186</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.0367765229507</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.3370701289063</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1556.669022505894</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="T34" t="n">
-        <v>1324.826325745621</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="U34" t="n">
-        <v>1042.028178291745</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="V34" t="n">
-        <v>768.1424332312672</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="W34" t="n">
-        <v>489.0727687401416</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X34" t="n">
-        <v>489.0727687401416</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y34" t="n">
-        <v>264.3370701289063</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2144.727460069145</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1820.802819284162</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1820.802819284162</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>590.2873592492926</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>419.1939868110092</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>419.1939868110092</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>258.2831716793286</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>828.6312213896092</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>828.6312213896092</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>590.2873592492926</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>590.2873592492926</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7210,7 +7210,7 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W38" t="n">
         <v>3450.08414315125</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3790.308655650302</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C40" t="n">
-        <v>3619.215283212019</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.720638534929</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.720638534929</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F40" t="n">
-        <v>3295.08951264552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>4294.114018752663</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>4294.114018752663</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W40" t="n">
-        <v>4015.044354261538</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X40" t="n">
-        <v>4015.044354261538</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y40" t="n">
-        <v>3790.308655650302</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
         <v>1320.262653899312</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4367.890686927541</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>1253.007044501816</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
         <v>1789.888428857139</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.869447136969</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="C43" t="n">
-        <v>3883.776074698686</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="D43" t="n">
-        <v>3724.281430021596</v>
+        <v>542.121674304303</v>
       </c>
       <c r="E43" t="n">
-        <v>3563.370614889915</v>
+        <v>381.2108591726225</v>
       </c>
       <c r="F43" t="n">
-        <v>3398.739489000507</v>
+        <v>381.2108591726225</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T43" t="n">
-        <v>4337.363427183242</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U43" t="n">
-        <v>4328.755192197447</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V43" t="n">
-        <v>4054.869447136969</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W43" t="n">
-        <v>4054.869447136969</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.869447136969</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.869447136969</v>
+        <v>701.6163189813931</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.456071912701</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y44" t="n">
-        <v>2769.519398860791</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>3469.596718162561</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>3608.383329301262</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>3608.383329301262</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3405.093950857723</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>3405.093950857723</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>3405.093950857723</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.829649468958</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y46" t="n">
-        <v>3405.093950857723</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7996,7 +7996,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8069,16 +8069,16 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,19 +8303,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682832</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>519.8012871361426</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>311.4682568862063</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>144.2828090848179</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8771,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1609013342966</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>205.4824228069005</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>356.0091697870508</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9029,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>846.2776300172818</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9491,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4271838211926</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>191.2399885596099</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>514.5673383305425</v>
+        <v>544.4254386968355</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>398.595458917175</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>346.553124795057</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10825,13 +10825,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>675.0496721821739</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11153,10 +11153,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P42" t="n">
-        <v>596.5640636445446</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11378,22 +11378,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>197.7527798381155</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>45.84716204233325</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.9958808389731</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42553959831346</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.28731256679833</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23667,10 +23667,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>52.46603520923551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.8456165274204</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.022088210043563</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>123.0384446415718</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>96.14494677818604</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,7 +24378,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>129.1276841407384</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>156.7553487017542</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>76.74473988225778</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,7 +24618,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>21.72271764186436</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.9388090533455</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.1061550538309</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.2629873331146</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>222.4997066824612</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>114.778320818413</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25332,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W38" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.7786421167837</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.897397675833872</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25605,16 +25605,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.28731256679805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>143.7843633758474</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>271.4480133434007</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>153.0107897417199</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>165.8790128972401</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26088,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212095</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666926.3726212095</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666926.3726212092</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666926.3726212092</v>
+        <v>666926.3726212095</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666926.3726212094</v>
+        <v>666926.3726212092</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666926.3726212092</v>
+        <v>666926.3726212094</v>
       </c>
     </row>
     <row r="15">
@@ -26316,31 +26316,31 @@
         <v>439782.4611876338</v>
       </c>
       <c r="C2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876338</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.461187634</v>
       </c>
       <c r="E2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="F2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="G2" t="n">
+        <v>391025.7011723766</v>
+      </c>
+      <c r="H2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="I2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="J2" t="n">
         <v>391025.7011723768</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>391025.7011723768</v>
-      </c>
-      <c r="I2" t="n">
-        <v>391025.7011723768</v>
-      </c>
-      <c r="J2" t="n">
-        <v>391025.7011723766</v>
-      </c>
-      <c r="K2" t="n">
-        <v>391025.7011723766</v>
       </c>
       <c r="L2" t="n">
         <v>391025.7011723768</v>
@@ -26423,19 +26423,19 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.51658519973</v>
+        <v>99895.51658519972</v>
       </c>
       <c r="E4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
+        <v>44919.86535090265</v>
+      </c>
+      <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="G4" t="n">
-        <v>44919.86535090263</v>
-      </c>
       <c r="H4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="I4" t="n">
         <v>44919.86535090264</v>
@@ -26447,10 +26447,10 @@
         <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
@@ -26459,7 +26459,7 @@
         <v>44919.86535090263</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090263</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15368.92747212813</v>
+        <v>15368.92747212806</v>
       </c>
       <c r="C6" t="n">
-        <v>190324.4373652421</v>
+        <v>190324.4373652422</v>
       </c>
       <c r="D6" t="n">
-        <v>69058.4043371653</v>
+        <v>69058.40433716556</v>
       </c>
       <c r="E6" t="n">
-        <v>248271.6713956665</v>
+        <v>248091.0908030174</v>
       </c>
       <c r="F6" t="n">
-        <v>275240.6255766008</v>
+        <v>275060.0449839517</v>
       </c>
       <c r="G6" t="n">
-        <v>275240.6255766009</v>
+        <v>275060.0449839515</v>
       </c>
       <c r="H6" t="n">
-        <v>275240.6255766008</v>
+        <v>275060.0449839516</v>
       </c>
       <c r="I6" t="n">
-        <v>275240.6255766008</v>
+        <v>275060.0449839516</v>
       </c>
       <c r="J6" t="n">
-        <v>138645.8247707057</v>
+        <v>138465.2441780568</v>
       </c>
       <c r="K6" t="n">
-        <v>275240.6255766007</v>
+        <v>275060.0449839517</v>
       </c>
       <c r="L6" t="n">
-        <v>135241.314711848</v>
+        <v>135060.734119199</v>
       </c>
       <c r="M6" t="n">
-        <v>252731.3608025534</v>
+        <v>252550.7802099043</v>
       </c>
       <c r="N6" t="n">
-        <v>275240.6255766007</v>
+        <v>275060.0449839515</v>
       </c>
       <c r="O6" t="n">
-        <v>275240.6255766009</v>
+        <v>275060.0449839518</v>
       </c>
       <c r="P6" t="n">
-        <v>275240.6255766008</v>
+        <v>275060.0449839518</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>208.9489091311627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.5486989451571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7330154719022</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>322.7998714411859</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659456</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>45.62226398710956</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.0887321237323</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.8056831342837</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28022,16 +28022,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>248.2640602371184</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34698,17 +34698,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34789,16 +34789,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>176.5650354103358</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,19 +35023,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>209.2450561298658</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>426.5110626790972</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>217.8188936053221</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>91.08941569106788</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>694.4094223342966</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>151.2227878040968</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>298.4448860486334</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O21" t="n">
-        <v>133.6757048211926</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>133.6757048211925</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3739449367926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>341.0311751787576</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>292.2934897922533</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37545,13 +37545,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P42" t="n">
-        <v>542.3044286417409</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38098,22 +38098,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>140.1884960996981</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
